--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>910600.2753033197</v>
+        <v>908408.3981501464</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28215137.91942699</v>
+        <v>28215137.919427</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3165573.335774305</v>
+        <v>3165573.335774306</v>
       </c>
     </row>
     <row r="9">
@@ -740,55 +740,55 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E3" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="F3" t="n">
+        <v>36.39025468426209</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="G3" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -816,70 +816,70 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.39025468426208</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>21.20364308168184</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H4" t="n">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -980,70 +980,70 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>36.39025468426208</v>
-      </c>
-      <c r="G6" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="H6" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>41.31500304752735</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>15.18661160258025</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1226,52 +1226,52 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H9" t="n">
+      <c r="T9" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>36.39025468426208</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>15.18661160258025</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="X10" t="n">
-        <v>15.18661160258025</v>
       </c>
       <c r="Y10" t="n">
         <v>41.31500304752735</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>397.4313345788105</v>
       </c>
       <c r="G11" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T11" t="n">
-        <v>188.4770481268567</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U11" t="n">
         <v>256.5154774752252</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1548,7 +1548,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I13" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541631</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>397.4313345788105</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>110.333491268653</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>50.17164010427808</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U14" t="n">
         <v>256.5154774752252</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>151.3327801063809</v>
+        <v>158.9512720050446</v>
       </c>
       <c r="G17" t="n">
         <v>395.9513258013682</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T17" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.2927798113888</v>
+        <v>163.2927798113889</v>
       </c>
       <c r="H19" t="n">
         <v>132.7900107487581</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>271.5679831933489</v>
@@ -2140,16 +2140,16 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>198.073512258028</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>257.1129092820527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2374,7 +2374,7 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752265</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T24" t="n">
         <v>125.7874466415632</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T27" t="n">
         <v>125.7874466415632</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T30" t="n">
         <v>125.7874466415632</v>
@@ -3085,7 +3085,7 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752256</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T33" t="n">
         <v>125.7874466415632</v>
@@ -3277,13 +3277,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>82.1202274045026</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>117.7362508794418</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U35" t="n">
         <v>256.5154774752252</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T36" t="n">
         <v>125.7874466415632</v>
@@ -3483,7 +3483,7 @@
         <v>275.6136207896234</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>284.0859530482737</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3514,10 +3514,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>140.2254349406074</v>
       </c>
       <c r="G38" t="n">
-        <v>298.660996251865</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T39" t="n">
         <v>125.7874466415632</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>211.5234950306516</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>385.0858098862544</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T42" t="n">
         <v>125.7874466415632</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>146.4504960531557</v>
+        <v>146.4504960531559</v>
       </c>
       <c r="T43" t="n">
         <v>240.675072556151</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.9513258013682</v>
@@ -4030,10 +4030,10 @@
         <v>50.17164010427808</v>
       </c>
       <c r="T44" t="n">
-        <v>67.27538044028722</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>42.12088009375126</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T45" t="n">
         <v>125.7874466415632</v>
@@ -4330,25 +4330,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K2" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L2" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M2" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N2" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O2" t="n">
-        <v>124.3581591730573</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P2" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q2" t="n">
         <v>124.3581591730573</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C3" t="n">
-        <v>128.5021791757032</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D3" t="n">
-        <v>128.5021791757032</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E3" t="n">
-        <v>86.76985286506957</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="F3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G3" t="n">
         <v>3.305200243802188</v>
@@ -4409,22 +4409,22 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>29.36887340425979</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L3" t="n">
-        <v>70.27072642131186</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M3" t="n">
-        <v>111.1725794383639</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N3" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="O3" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P3" t="n">
         <v>165.2600121901094</v>
@@ -4436,25 +4436,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C4" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D4" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E4" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F4" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H4" t="n">
         <v>3.305200243802188</v>
@@ -4488,52 +4488,52 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L4" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M4" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N4" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="O4" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P4" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U4" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V4" t="n">
-        <v>165.2600121901094</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="W4" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X4" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064263</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419044</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G5" t="n">
         <v>3.305200243802188</v>
@@ -4579,13 +4579,13 @@
         <v>44.20705326085427</v>
       </c>
       <c r="N5" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O5" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="P5" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q5" t="n">
         <v>124.3581591730573</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C6" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D6" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E6" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F6" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G6" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K6" t="n">
-        <v>3.305200243802188</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L6" t="n">
-        <v>44.20705326085427</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="M6" t="n">
-        <v>44.20705326085427</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="N6" t="n">
-        <v>44.20705326085427</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="O6" t="n">
-        <v>44.20705326085427</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="P6" t="n">
-        <v>83.45630615600527</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="Q6" t="n">
         <v>124.3581591730573</v>
@@ -4673,16 +4673,16 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W6" t="n">
         <v>123.5276858794757</v>
@@ -4691,7 +4691,7 @@
         <v>123.5276858794757</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="7">
@@ -4728,22 +4728,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L7" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M7" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N7" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O7" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P7" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
@@ -4755,22 +4755,22 @@
         <v>102.1098645848476</v>
       </c>
       <c r="T7" t="n">
-        <v>60.37753827421391</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U7" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V7" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W7" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X7" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="8">
@@ -4804,28 +4804,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K8" t="n">
         <v>44.20705326085427</v>
       </c>
       <c r="L8" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M8" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N8" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O8" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P8" t="n">
-        <v>85.10890627790634</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q8" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R8" t="n">
         <v>165.2600121901094</v>
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K9" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L9" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M9" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N9" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O9" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P9" t="n">
         <v>83.45630615600527</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>128.5021791757032</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T9" t="n">
         <v>86.76985286506957</v>
       </c>
       <c r="U9" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="V9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="W9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4962,16 +4962,16 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L10" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M10" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N10" t="n">
         <v>124.3581591730573</v>
@@ -4989,25 +4989,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V10" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W10" t="n">
-        <v>60.37753827421391</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X10" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="Y10" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>898.2191093828901</v>
+        <v>461.5715949273663</v>
       </c>
       <c r="C11" t="n">
-        <v>460.0766365663134</v>
+        <v>461.5715949273663</v>
       </c>
       <c r="D11" t="n">
-        <v>460.0766365663134</v>
+        <v>461.5715949273663</v>
       </c>
       <c r="E11" t="n">
-        <v>460.0766365663134</v>
+        <v>461.5715949273663</v>
       </c>
       <c r="F11" t="n">
-        <v>460.0766365663134</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G11" t="n">
         <v>60.12580242351726</v>
@@ -5041,25 +5041,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J11" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K11" t="n">
-        <v>415.1612716583816</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L11" t="n">
-        <v>1109.814993933966</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M11" t="n">
-        <v>1358.838853932253</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N11" t="n">
-        <v>1611.892180331744</v>
+        <v>1576.296055885761</v>
       </c>
       <c r="O11" t="n">
-        <v>1850.843260703269</v>
+        <v>1815.247136257286</v>
       </c>
       <c r="P11" t="n">
-        <v>2594.900065694295</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q11" t="n">
         <v>2748.049925732253</v>
@@ -5068,25 +5068,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S11" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T11" t="n">
-        <v>2815.909264482068</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U11" t="n">
-        <v>2556.8027215778</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.8027215778</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W11" t="n">
-        <v>2151.947266988834</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="X11" t="n">
-        <v>1732.804803568145</v>
+        <v>1296.157289112621</v>
       </c>
       <c r="Y11" t="n">
-        <v>1324.518679867798</v>
+        <v>887.8711654122741</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I12" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J12" t="n">
-        <v>157.9417523880325</v>
+        <v>184.0054255484901</v>
       </c>
       <c r="K12" t="n">
-        <v>280.4721130373319</v>
+        <v>306.5357861977895</v>
       </c>
       <c r="L12" t="n">
-        <v>445.2293041160065</v>
+        <v>471.2929772764641</v>
       </c>
       <c r="M12" t="n">
-        <v>1030.798650445895</v>
+        <v>663.5568481706168</v>
       </c>
       <c r="N12" t="n">
-        <v>1228.151173903613</v>
+        <v>860.9093716283348</v>
       </c>
       <c r="O12" t="n">
-        <v>1408.690176922396</v>
+        <v>1041.448374647118</v>
       </c>
       <c r="P12" t="n">
-        <v>1553.588643444633</v>
+        <v>1186.346841169355</v>
       </c>
       <c r="Q12" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R12" t="n">
         <v>1697.561900409858</v>
@@ -5193,19 +5193,19 @@
         <v>263.3976759832894</v>
       </c>
       <c r="H13" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946449</v>
       </c>
       <c r="I13" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="J13" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K13" t="n">
-        <v>453.7703569787436</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L13" t="n">
-        <v>966.5593737926657</v>
+        <v>744.3689516438141</v>
       </c>
       <c r="M13" t="n">
         <v>1303.573255757435</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1869.076566802803</v>
+        <v>461.5715949273663</v>
       </c>
       <c r="C14" t="n">
-        <v>1869.076566802803</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="D14" t="n">
-        <v>1433.166781977248</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="E14" t="n">
-        <v>999.392037135543</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="F14" t="n">
-        <v>571.5246075447508</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G14" t="n">
-        <v>171.5737734019546</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H14" t="n">
         <v>60.12580242351726</v>
@@ -5287,16 +5287,16 @@
         <v>1074.218869487983</v>
       </c>
       <c r="M14" t="n">
-        <v>1818.275674479009</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N14" t="n">
-        <v>2071.329000878499</v>
+        <v>1576.296055885761</v>
       </c>
       <c r="O14" t="n">
-        <v>2310.280081250025</v>
+        <v>1815.247136257286</v>
       </c>
       <c r="P14" t="n">
-        <v>2514.219300018493</v>
+        <v>2559.303941248312</v>
       </c>
       <c r="Q14" t="n">
         <v>2748.049925732253</v>
@@ -5308,22 +5308,22 @@
         <v>2955.611696828107</v>
       </c>
       <c r="T14" t="n">
-        <v>2955.611696828107</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U14" t="n">
-        <v>2696.505153923839</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V14" t="n">
-        <v>2696.505153923839</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W14" t="n">
-        <v>2696.505153923839</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="X14" t="n">
-        <v>2277.36269050315</v>
+        <v>1296.157289112621</v>
       </c>
       <c r="Y14" t="n">
-        <v>1869.076566802803</v>
+        <v>887.8711654122741</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I15" t="n">
-        <v>112.3149972477986</v>
+        <v>86.25132408734103</v>
       </c>
       <c r="J15" t="n">
-        <v>508.5637505147024</v>
+        <v>157.9417523880325</v>
       </c>
       <c r="K15" t="n">
-        <v>673.7775884730678</v>
+        <v>280.4721130373319</v>
       </c>
       <c r="L15" t="n">
-        <v>838.5347795517423</v>
+        <v>445.2293041160065</v>
       </c>
       <c r="M15" t="n">
-        <v>1030.798650445895</v>
+        <v>637.4931750101592</v>
       </c>
       <c r="N15" t="n">
-        <v>1228.151173903613</v>
+        <v>834.8456984678772</v>
       </c>
       <c r="O15" t="n">
-        <v>1408.690176922396</v>
+        <v>1015.38470148666</v>
       </c>
       <c r="P15" t="n">
-        <v>1553.588643444633</v>
+        <v>1160.283168008897</v>
       </c>
       <c r="Q15" t="n">
         <v>1650.449431024751</v>
@@ -5415,22 +5415,22 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C16" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D16" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E16" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512187</v>
       </c>
       <c r="F16" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129749</v>
       </c>
       <c r="G16" t="n">
-        <v>263.3976759832894</v>
+        <v>263.3976759832891</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946445</v>
       </c>
       <c r="I16" t="n">
         <v>60.12580242351726</v>
@@ -5475,7 +5475,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W16" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X16" t="n">
         <v>1532.482929320613</v>
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.391597564435</v>
+        <v>1768.996828752277</v>
       </c>
       <c r="C17" t="n">
-        <v>887.2491247478588</v>
+        <v>1330.854355935701</v>
       </c>
       <c r="D17" t="n">
-        <v>887.2491247478588</v>
+        <v>894.9445711101453</v>
       </c>
       <c r="E17" t="n">
-        <v>887.2491247478588</v>
+        <v>894.9445711101453</v>
       </c>
       <c r="F17" t="n">
         <v>734.3877307010093</v>
@@ -5530,10 +5530,10 @@
         <v>1576.296055885761</v>
       </c>
       <c r="O17" t="n">
-        <v>2320.352860876787</v>
+        <v>1815.247136257286</v>
       </c>
       <c r="P17" t="n">
-        <v>2594.900065694295</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q17" t="n">
         <v>2748.049925732253</v>
@@ -5542,25 +5542,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S17" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T17" t="n">
-        <v>2792.557124440474</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="U17" t="n">
-        <v>2533.450581536206</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="V17" t="n">
-        <v>2170.833631470032</v>
+        <v>2592.994746761934</v>
       </c>
       <c r="W17" t="n">
-        <v>2170.833631470032</v>
+        <v>2188.139292172967</v>
       </c>
       <c r="X17" t="n">
-        <v>1751.691168049343</v>
+        <v>1768.996828752277</v>
       </c>
       <c r="Y17" t="n">
-        <v>1751.691168049343</v>
+        <v>1768.996828752277</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I18" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J18" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K18" t="n">
-        <v>280.4721130373319</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L18" t="n">
-        <v>445.2293041160065</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M18" t="n">
-        <v>637.4931750101592</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N18" t="n">
-        <v>834.8456984678772</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.38470148666</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P18" t="n">
-        <v>1160.283168008897</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q18" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R18" t="n">
         <v>1697.561900409858</v>
@@ -5673,10 +5673,10 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J19" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K19" t="n">
-        <v>453.7703569787436</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L19" t="n">
         <v>744.3689516438141</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2031.939689959062</v>
+        <v>2070.131328632843</v>
       </c>
       <c r="C20" t="n">
-        <v>2031.939689959062</v>
+        <v>1631.988855816266</v>
       </c>
       <c r="D20" t="n">
-        <v>1596.029905133506</v>
+        <v>1196.07907099071</v>
       </c>
       <c r="E20" t="n">
-        <v>1162.255160291802</v>
+        <v>762.3043261490054</v>
       </c>
       <c r="F20" t="n">
-        <v>734.3877307010093</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G20" t="n">
         <v>334.4368965582132</v>
@@ -5755,13 +5755,13 @@
         <v>670.0153478550027</v>
       </c>
       <c r="K20" t="n">
-        <v>850.4159591112995</v>
+        <v>1414.072152846029</v>
       </c>
       <c r="L20" t="n">
-        <v>1074.218869487983</v>
+        <v>1649.932580156523</v>
       </c>
       <c r="M20" t="n">
-        <v>1818.275674479009</v>
+        <v>1898.956440154811</v>
       </c>
       <c r="N20" t="n">
         <v>2152.009766554301</v>
@@ -5788,16 +5788,16 @@
         <v>2696.505153923839</v>
       </c>
       <c r="V20" t="n">
-        <v>2696.505153923839</v>
+        <v>2496.43089911775</v>
       </c>
       <c r="W20" t="n">
-        <v>2291.649699334873</v>
+        <v>2496.43089911775</v>
       </c>
       <c r="X20" t="n">
-        <v>2291.649699334873</v>
+        <v>2496.43089911775</v>
       </c>
       <c r="Y20" t="n">
-        <v>2031.939689959062</v>
+        <v>2496.43089911775</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I21" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J21" t="n">
-        <v>482.5000773542449</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K21" t="n">
-        <v>605.0304380035443</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L21" t="n">
-        <v>769.7876290822189</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M21" t="n">
-        <v>962.0514999763718</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N21" t="n">
-        <v>1159.40402343409</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O21" t="n">
-        <v>1339.943026452873</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P21" t="n">
-        <v>1484.84149297511</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q21" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R21" t="n">
         <v>1697.561900409858</v>
@@ -5889,19 +5889,19 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C22" t="n">
-        <v>940.6829283989587</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D22" t="n">
-        <v>774.8049356004813</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E22" t="n">
-        <v>605.0469318512182</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F22" t="n">
-        <v>428.3398778129745</v>
+        <v>428.3398778129751</v>
       </c>
       <c r="G22" t="n">
-        <v>263.397675983289</v>
+        <v>263.3976759832894</v>
       </c>
       <c r="H22" t="n">
         <v>129.2663519946448</v>
@@ -5913,22 +5913,22 @@
         <v>105.1020732595475</v>
       </c>
       <c r="K22" t="n">
-        <v>231.5799348298918</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L22" t="n">
-        <v>744.3689516438141</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M22" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N22" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O22" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P22" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q22" t="n">
         <v>2998.677814292588</v>
@@ -5940,7 +5940,7 @@
         <v>2858.360327182776</v>
       </c>
       <c r="T22" t="n">
-        <v>2615.254193287673</v>
+        <v>2615.254193287674</v>
       </c>
       <c r="U22" t="n">
         <v>2336.856596530478</v>
@@ -5949,7 +5949,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W22" t="n">
-        <v>1777.8746839872</v>
+        <v>1777.874683987201</v>
       </c>
       <c r="X22" t="n">
         <v>1532.482929320613</v>
@@ -5974,13 +5974,13 @@
         <v>1637.019916722246</v>
       </c>
       <c r="E23" t="n">
-        <v>1203.245171880541</v>
+        <v>1203.245171880542</v>
       </c>
       <c r="F23" t="n">
-        <v>775.3777422897492</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G23" t="n">
-        <v>375.4269081469534</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H23" t="n">
         <v>101.1158140122575</v>
@@ -5992,34 +5992,34 @@
         <v>711.0053594437429</v>
       </c>
       <c r="K23" t="n">
-        <v>891.4059707000398</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L23" t="n">
-        <v>1115.208881076723</v>
+        <v>1949.559173034901</v>
       </c>
       <c r="M23" t="n">
-        <v>2366.517079478409</v>
+        <v>2198.583033033189</v>
       </c>
       <c r="N23" t="n">
-        <v>2619.5704058779</v>
+        <v>2451.636359432679</v>
       </c>
       <c r="O23" t="n">
-        <v>3065.652765570849</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P23" t="n">
         <v>4097.901859172714</v>
       </c>
       <c r="Q23" t="n">
-        <v>4797.550505169266</v>
+        <v>4797.550505169267</v>
       </c>
       <c r="R23" t="n">
-        <v>5055.790700612875</v>
+        <v>5055.790700612876</v>
       </c>
       <c r="S23" t="n">
         <v>5005.11227626512</v>
       </c>
       <c r="T23" t="n">
-        <v>4791.37927952973</v>
+        <v>4791.379279529731</v>
       </c>
       <c r="U23" t="n">
         <v>4532.272736625462</v>
@@ -6050,46 +6050,46 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D24" t="n">
-        <v>397.4893413874963</v>
+        <v>397.4893413874964</v>
       </c>
       <c r="E24" t="n">
-        <v>303.36892671445</v>
+        <v>303.3689267144501</v>
       </c>
       <c r="F24" t="n">
         <v>219.9850883306117</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3742103715399</v>
+        <v>135.37421037154</v>
       </c>
       <c r="H24" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I24" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J24" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181689</v>
       </c>
       <c r="K24" t="n">
-        <v>321.4621246260721</v>
+        <v>597.5948219674683</v>
       </c>
       <c r="L24" t="n">
-        <v>486.2193157047468</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M24" t="n">
-        <v>678.4831865988997</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N24" t="n">
-        <v>1269.141185492353</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O24" t="n">
-        <v>1449.680188511137</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P24" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q24" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R24" t="n">
         <v>1738.551911998599</v>
@@ -6147,25 +6147,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J25" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K25" t="n">
-        <v>440.7627212829649</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L25" t="n">
-        <v>953.551738096887</v>
+        <v>785.3589632325543</v>
       </c>
       <c r="M25" t="n">
-        <v>1512.756042210508</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N25" t="n">
-        <v>2052.364153196736</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O25" t="n">
-        <v>2561.951244644274</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P25" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q25" t="n">
         <v>3039.667825881328</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2511.072174364378</v>
+        <v>2511.072174364379</v>
       </c>
       <c r="C26" t="n">
-        <v>2072.929701547802</v>
+        <v>2072.929701547803</v>
       </c>
       <c r="D26" t="n">
-        <v>1637.019916722246</v>
+        <v>1637.019916722247</v>
       </c>
       <c r="E26" t="n">
-        <v>1203.245171880541</v>
+        <v>1203.245171880542</v>
       </c>
       <c r="F26" t="n">
-        <v>775.3777422897492</v>
+        <v>775.3777422897501</v>
       </c>
       <c r="G26" t="n">
         <v>375.4269081469534</v>
@@ -6232,7 +6232,7 @@
         <v>1725.756262658218</v>
       </c>
       <c r="L26" t="n">
-        <v>1949.559173034901</v>
+        <v>2324.624498801545</v>
       </c>
       <c r="M26" t="n">
         <v>2573.648358799833</v>
@@ -6256,22 +6256,22 @@
         <v>5005.11227626512</v>
       </c>
       <c r="T26" t="n">
-        <v>4791.37927952973</v>
+        <v>4791.379279529731</v>
       </c>
       <c r="U26" t="n">
-        <v>4532.272736625462</v>
+        <v>4532.272736625463</v>
       </c>
       <c r="V26" t="n">
         <v>4169.655786559289</v>
       </c>
       <c r="W26" t="n">
-        <v>3764.800331970322</v>
+        <v>3764.800331970323</v>
       </c>
       <c r="X26" t="n">
-        <v>3345.657868549633</v>
+        <v>3345.657868549634</v>
       </c>
       <c r="Y26" t="n">
-        <v>2937.371744849286</v>
+        <v>2937.371744849287</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>153.3050088365389</v>
       </c>
       <c r="J27" t="n">
-        <v>549.5537621034428</v>
+        <v>475.0644613181689</v>
       </c>
       <c r="K27" t="n">
-        <v>672.0841227527421</v>
+        <v>597.5948219674683</v>
       </c>
       <c r="L27" t="n">
-        <v>836.8413138314168</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M27" t="n">
-        <v>1029.105184725569</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N27" t="n">
-        <v>1226.457708183287</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O27" t="n">
-        <v>1406.996711202071</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P27" t="n">
-        <v>1551.895177724308</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q27" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R27" t="n">
         <v>1738.551911998599</v>
@@ -6387,13 +6387,13 @@
         <v>232.6717700129776</v>
       </c>
       <c r="K28" t="n">
-        <v>306.5815991610381</v>
+        <v>581.3400537321737</v>
       </c>
       <c r="L28" t="n">
-        <v>819.3706159749603</v>
+        <v>785.3589632325543</v>
       </c>
       <c r="M28" t="n">
-        <v>1378.574920088581</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N28" t="n">
         <v>1884.171378332404</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2511.07217436438</v>
+        <v>2511.072174364379</v>
       </c>
       <c r="C29" t="n">
-        <v>2072.929701547804</v>
+        <v>2072.929701547803</v>
       </c>
       <c r="D29" t="n">
-        <v>1637.019916722248</v>
+        <v>1637.019916722247</v>
       </c>
       <c r="E29" t="n">
-        <v>1203.245171880543</v>
+        <v>1203.245171880542</v>
       </c>
       <c r="F29" t="n">
-        <v>775.377742289751</v>
+        <v>775.3777422897501</v>
       </c>
       <c r="G29" t="n">
-        <v>375.4269081469547</v>
+        <v>375.4269081469538</v>
       </c>
       <c r="H29" t="n">
         <v>101.1158140122575</v>
@@ -6463,52 +6463,52 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J29" t="n">
-        <v>275.750671990825</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K29" t="n">
-        <v>456.1512832471219</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L29" t="n">
-        <v>679.9541936238055</v>
+        <v>2324.624498801546</v>
       </c>
       <c r="M29" t="n">
-        <v>1931.262392025492</v>
+        <v>2573.648358799834</v>
       </c>
       <c r="N29" t="n">
-        <v>3182.570590427179</v>
+        <v>2826.701685199324</v>
       </c>
       <c r="O29" t="n">
-        <v>4401.701337369011</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P29" t="n">
-        <v>4813.554709884365</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q29" t="n">
-        <v>4966.704569922324</v>
+        <v>4797.550505169267</v>
       </c>
       <c r="R29" t="n">
         <v>5055.790700612876</v>
       </c>
       <c r="S29" t="n">
-        <v>5005.112276265121</v>
+        <v>5005.11227626512</v>
       </c>
       <c r="T29" t="n">
-        <v>4791.379279529732</v>
+        <v>4791.379279529731</v>
       </c>
       <c r="U29" t="n">
-        <v>4532.272736625464</v>
+        <v>4532.272736625463</v>
       </c>
       <c r="V29" t="n">
-        <v>4169.65578655929</v>
+        <v>4169.655786559289</v>
       </c>
       <c r="W29" t="n">
-        <v>3764.800331970324</v>
+        <v>3764.800331970323</v>
       </c>
       <c r="X29" t="n">
-        <v>3345.657868549635</v>
+        <v>3345.657868549634</v>
       </c>
       <c r="Y29" t="n">
-        <v>2937.371744849288</v>
+        <v>2937.371744849287</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I30" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J30" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181689</v>
       </c>
       <c r="K30" t="n">
-        <v>321.4621246260721</v>
+        <v>597.5948219674683</v>
       </c>
       <c r="L30" t="n">
-        <v>486.2193157047468</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M30" t="n">
-        <v>678.4831865988997</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N30" t="n">
-        <v>875.8357100566177</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O30" t="n">
-        <v>1449.680188511137</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P30" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q30" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R30" t="n">
         <v>1738.551911998599</v>
@@ -6621,25 +6621,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J31" t="n">
-        <v>232.6717700129776</v>
+        <v>146.0920848482878</v>
       </c>
       <c r="K31" t="n">
-        <v>581.3400537321738</v>
+        <v>494.7603685674839</v>
       </c>
       <c r="L31" t="n">
-        <v>1094.129070546096</v>
+        <v>1007.549385381406</v>
       </c>
       <c r="M31" t="n">
-        <v>1653.333374659717</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N31" t="n">
-        <v>2192.941485645946</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O31" t="n">
-        <v>2702.528577093483</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P31" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q31" t="n">
         <v>3039.667825881328</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2511.07217436438</v>
+        <v>2511.072174364379</v>
       </c>
       <c r="C32" t="n">
-        <v>2072.929701547804</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.019916722248</v>
+        <v>1637.019916722247</v>
       </c>
       <c r="E32" t="n">
-        <v>1203.245171880543</v>
+        <v>1203.245171880542</v>
       </c>
       <c r="F32" t="n">
-        <v>775.377742289751</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G32" t="n">
-        <v>375.4269081469547</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H32" t="n">
         <v>101.1158140122575</v>
@@ -6700,22 +6700,22 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J32" t="n">
-        <v>275.750671990825</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K32" t="n">
-        <v>1290.5015752053</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L32" t="n">
-        <v>1514.304485581983</v>
+        <v>2154.679501632746</v>
       </c>
       <c r="M32" t="n">
-        <v>1763.328345580271</v>
+        <v>2403.703361631035</v>
       </c>
       <c r="N32" t="n">
-        <v>2016.381671979762</v>
+        <v>3655.011560032721</v>
       </c>
       <c r="O32" t="n">
-        <v>3065.65276557085</v>
+        <v>3893.962640404246</v>
       </c>
       <c r="P32" t="n">
         <v>4097.901859172714</v>
@@ -6727,25 +6727,25 @@
         <v>5055.790700612876</v>
       </c>
       <c r="S32" t="n">
-        <v>5005.112276265121</v>
+        <v>5005.11227626512</v>
       </c>
       <c r="T32" t="n">
-        <v>4791.379279529732</v>
+        <v>4791.379279529731</v>
       </c>
       <c r="U32" t="n">
-        <v>4532.272736625464</v>
+        <v>4532.272736625463</v>
       </c>
       <c r="V32" t="n">
-        <v>4169.65578655929</v>
+        <v>4169.655786559289</v>
       </c>
       <c r="W32" t="n">
-        <v>3764.800331970324</v>
+        <v>3764.800331970323</v>
       </c>
       <c r="X32" t="n">
-        <v>3345.657868549635</v>
+        <v>3345.657868549634</v>
       </c>
       <c r="Y32" t="n">
-        <v>2937.371744849288</v>
+        <v>2937.371744849287</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>198.9317639767728</v>
       </c>
       <c r="K33" t="n">
-        <v>714.7676000618079</v>
+        <v>321.4621246260721</v>
       </c>
       <c r="L33" t="n">
-        <v>879.5247911404825</v>
+        <v>486.2193157047467</v>
       </c>
       <c r="M33" t="n">
-        <v>1071.788662034635</v>
+        <v>678.4831865988996</v>
       </c>
       <c r="N33" t="n">
-        <v>1269.141185492353</v>
+        <v>875.8357100566175</v>
       </c>
       <c r="O33" t="n">
-        <v>1449.680188511137</v>
+        <v>1056.374713075401</v>
       </c>
       <c r="P33" t="n">
-        <v>1594.578655033373</v>
+        <v>1201.273179597638</v>
       </c>
       <c r="Q33" t="n">
         <v>1691.439442613492</v>
@@ -6864,19 +6864,19 @@
         <v>581.3400537321738</v>
       </c>
       <c r="L34" t="n">
-        <v>953.551738096887</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M34" t="n">
-        <v>1512.756042210508</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N34" t="n">
-        <v>2052.364153196736</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O34" t="n">
-        <v>2561.951244644274</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P34" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q34" t="n">
         <v>3039.667825881328</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1795.820234498146</v>
+        <v>2125.164457835859</v>
       </c>
       <c r="C35" t="n">
-        <v>1357.67776168157</v>
+        <v>1687.021985019283</v>
       </c>
       <c r="D35" t="n">
-        <v>921.7679768560143</v>
+        <v>1251.112200193727</v>
       </c>
       <c r="E35" t="n">
-        <v>487.9932320143095</v>
+        <v>817.3374553520221</v>
       </c>
       <c r="F35" t="n">
-        <v>60.12580242351726</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G35" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H35" t="n">
         <v>60.12580242351726</v>
@@ -6937,52 +6937,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J35" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K35" t="n">
-        <v>415.1612716583816</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L35" t="n">
-        <v>773.8633340675214</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M35" t="n">
-        <v>1022.887194065809</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N35" t="n">
-        <v>1275.9405204653</v>
+        <v>1576.296055885761</v>
       </c>
       <c r="O35" t="n">
-        <v>2019.997325456326</v>
+        <v>1815.247136257286</v>
       </c>
       <c r="P35" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q35" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R35" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S35" t="n">
-        <v>2955.611696828107</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="T35" t="n">
-        <v>2836.686190889277</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U35" t="n">
-        <v>2577.579647985009</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="V35" t="n">
-        <v>2214.962697918836</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="W35" t="n">
-        <v>2214.962697918836</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="X35" t="n">
-        <v>1795.820234498146</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="Y35" t="n">
-        <v>1795.820234498146</v>
+        <v>2125.164457835859</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I36" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J36" t="n">
-        <v>157.9417523880325</v>
+        <v>184.0054255484901</v>
       </c>
       <c r="K36" t="n">
-        <v>280.4721130373319</v>
+        <v>306.5357861977895</v>
       </c>
       <c r="L36" t="n">
-        <v>445.2293041160066</v>
+        <v>471.2929772764641</v>
       </c>
       <c r="M36" t="n">
-        <v>637.4931750101593</v>
+        <v>663.5568481706168</v>
       </c>
       <c r="N36" t="n">
-        <v>834.8456984678775</v>
+        <v>860.9093716283348</v>
       </c>
       <c r="O36" t="n">
-        <v>1408.690176922396</v>
+        <v>1041.448374647118</v>
       </c>
       <c r="P36" t="n">
-        <v>1553.588643444633</v>
+        <v>1186.346841169355</v>
       </c>
       <c r="Q36" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R36" t="n">
         <v>1697.561900409858</v>
@@ -7095,25 +7095,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J37" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K37" t="n">
-        <v>540.3500421434335</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L37" t="n">
-        <v>1053.139058957355</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M37" t="n">
-        <v>1612.343363070976</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N37" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O37" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P37" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q37" t="n">
         <v>2998.677814292588</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1669.630578899137</v>
+        <v>1509.594658382715</v>
       </c>
       <c r="C38" t="n">
-        <v>1231.488106082561</v>
+        <v>1071.452185566139</v>
       </c>
       <c r="D38" t="n">
-        <v>795.578321257005</v>
+        <v>635.5424007405832</v>
       </c>
       <c r="E38" t="n">
-        <v>361.8035764153001</v>
+        <v>201.7676558988783</v>
       </c>
       <c r="F38" t="n">
-        <v>361.8035764153001</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G38" t="n">
         <v>60.12580242351726</v>
@@ -7174,28 +7174,28 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J38" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K38" t="n">
-        <v>415.1612716583816</v>
+        <v>879.6308838212452</v>
       </c>
       <c r="L38" t="n">
-        <v>1159.218076649408</v>
+        <v>1103.433794197929</v>
       </c>
       <c r="M38" t="n">
-        <v>1577.107026316332</v>
+        <v>1352.457654196217</v>
       </c>
       <c r="N38" t="n">
-        <v>2321.163831307358</v>
+        <v>1605.510980595707</v>
       </c>
       <c r="O38" t="n">
-        <v>2560.114911678883</v>
+        <v>1844.462060967232</v>
       </c>
       <c r="P38" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q38" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R38" t="n">
         <v>3006.290121175863</v>
@@ -7207,19 +7207,19 @@
         <v>2741.878700092718</v>
       </c>
       <c r="U38" t="n">
-        <v>2482.77215718845</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="V38" t="n">
-        <v>2482.77215718845</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="W38" t="n">
-        <v>2077.916702599484</v>
+        <v>2337.023245503751</v>
       </c>
       <c r="X38" t="n">
-        <v>2077.916702599484</v>
+        <v>1917.880782083062</v>
       </c>
       <c r="Y38" t="n">
-        <v>1669.630578899137</v>
+        <v>1509.594658382715</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I39" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J39" t="n">
-        <v>157.9417523880325</v>
+        <v>184.0054255484901</v>
       </c>
       <c r="K39" t="n">
-        <v>280.4721130373319</v>
+        <v>306.5357861977895</v>
       </c>
       <c r="L39" t="n">
-        <v>445.2293041160066</v>
+        <v>838.5347795517423</v>
       </c>
       <c r="M39" t="n">
-        <v>637.4931750101593</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N39" t="n">
-        <v>834.8456984678775</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O39" t="n">
-        <v>1015.384701486661</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P39" t="n">
-        <v>1160.283168008898</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q39" t="n">
         <v>1650.449431024751</v>
@@ -7332,13 +7332,13 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J40" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K40" t="n">
-        <v>231.5799348298918</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L40" t="n">
-        <v>744.3689516438141</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M40" t="n">
         <v>1303.573255757435</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1168.162475542714</v>
+        <v>1101.604162147663</v>
       </c>
       <c r="C41" t="n">
-        <v>1168.162475542714</v>
+        <v>887.9440661571057</v>
       </c>
       <c r="D41" t="n">
-        <v>1168.162475542714</v>
+        <v>887.9440661571057</v>
       </c>
       <c r="E41" t="n">
-        <v>734.3877307010093</v>
+        <v>887.9440661571057</v>
       </c>
       <c r="F41" t="n">
-        <v>734.3877307010093</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="G41" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H41" t="n">
         <v>60.12580242351726</v>
@@ -7411,25 +7411,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J41" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K41" t="n">
-        <v>415.1612716583816</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L41" t="n">
-        <v>1159.218076649408</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M41" t="n">
-        <v>1408.241936647696</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N41" t="n">
-        <v>1661.295263047186</v>
+        <v>1576.296055885761</v>
       </c>
       <c r="O41" t="n">
-        <v>1900.246343418711</v>
+        <v>1815.247136257286</v>
       </c>
       <c r="P41" t="n">
-        <v>2594.900065694295</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q41" t="n">
         <v>2748.049925732253</v>
@@ -7438,25 +7438,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S41" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T41" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="U41" t="n">
-        <v>2747.183578271595</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="V41" t="n">
-        <v>2384.566628205421</v>
+        <v>2333.888203857666</v>
       </c>
       <c r="W41" t="n">
-        <v>1995.59106266375</v>
+        <v>1929.032749268699</v>
       </c>
       <c r="X41" t="n">
-        <v>1576.448599243061</v>
+        <v>1509.89028584801</v>
       </c>
       <c r="Y41" t="n">
-        <v>1168.162475542714</v>
+        <v>1101.604162147663</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I42" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J42" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K42" t="n">
-        <v>280.4721130373319</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L42" t="n">
-        <v>445.2293041160066</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M42" t="n">
-        <v>637.4931750101593</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N42" t="n">
-        <v>834.8456984678775</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O42" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P42" t="n">
-        <v>1160.283168008898</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q42" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R42" t="n">
         <v>1697.561900409858</v>
@@ -7569,22 +7569,22 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J43" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K43" t="n">
-        <v>453.7703569787436</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L43" t="n">
-        <v>966.5593737926657</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M43" t="n">
-        <v>1525.763677906287</v>
+        <v>1612.343363070976</v>
       </c>
       <c r="N43" t="n">
-        <v>2065.371788892516</v>
+        <v>2151.951474057205</v>
       </c>
       <c r="O43" t="n">
-        <v>2574.958880340053</v>
+        <v>2661.538565504743</v>
       </c>
       <c r="P43" t="n">
         <v>2777.215599969509</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2042.214733184846</v>
+        <v>2031.939689959062</v>
       </c>
       <c r="C44" t="n">
-        <v>1604.07226036827</v>
+        <v>2031.939689959062</v>
       </c>
       <c r="D44" t="n">
-        <v>1168.162475542714</v>
+        <v>1596.029905133506</v>
       </c>
       <c r="E44" t="n">
-        <v>734.3877307010093</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="F44" t="n">
         <v>734.3877307010093</v>
@@ -7651,22 +7651,22 @@
         <v>234.7606604020848</v>
       </c>
       <c r="K44" t="n">
-        <v>879.630883821245</v>
+        <v>415.1612716583816</v>
       </c>
       <c r="L44" t="n">
-        <v>1103.433794197929</v>
+        <v>1154.899635163785</v>
       </c>
       <c r="M44" t="n">
-        <v>1352.457654196217</v>
+        <v>1898.956440154811</v>
       </c>
       <c r="N44" t="n">
-        <v>1605.510980595707</v>
+        <v>2152.009766554301</v>
       </c>
       <c r="O44" t="n">
-        <v>1844.462060967232</v>
+        <v>2390.960846925826</v>
       </c>
       <c r="P44" t="n">
-        <v>2048.4012797357</v>
+        <v>2594.900065694295</v>
       </c>
       <c r="Q44" t="n">
         <v>2748.049925732253</v>
@@ -7678,22 +7678,22 @@
         <v>2955.611696828107</v>
       </c>
       <c r="T44" t="n">
-        <v>2887.656767090443</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U44" t="n">
-        <v>2887.656767090443</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V44" t="n">
-        <v>2887.656767090443</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="W44" t="n">
-        <v>2887.656767090443</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="X44" t="n">
-        <v>2468.514303669754</v>
+        <v>2440.225813659409</v>
       </c>
       <c r="Y44" t="n">
-        <v>2468.514303669754</v>
+        <v>2031.939689959062</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>112.3149972477986</v>
       </c>
       <c r="J45" t="n">
-        <v>184.0054255484901</v>
+        <v>508.5637505147024</v>
       </c>
       <c r="K45" t="n">
-        <v>306.5357861977895</v>
+        <v>673.7775884730678</v>
       </c>
       <c r="L45" t="n">
-        <v>471.2929772764642</v>
+        <v>838.5347795517423</v>
       </c>
       <c r="M45" t="n">
-        <v>663.5568481706169</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N45" t="n">
-        <v>860.909371628335</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O45" t="n">
-        <v>1041.448374647118</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P45" t="n">
-        <v>1186.346841169355</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q45" t="n">
         <v>1650.449431024751</v>
@@ -7809,22 +7809,22 @@
         <v>105.1020732595475</v>
       </c>
       <c r="K46" t="n">
-        <v>231.5799348298918</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L46" t="n">
-        <v>744.3689516438141</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M46" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N46" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O46" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P46" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q46" t="n">
         <v>2998.677814292588</v>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
         <v>41.31500304752734</v>
@@ -8057,25 +8057,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="L3" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="N3" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O4" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8227,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -8376,25 +8376,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O7" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q8" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
@@ -8610,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>475.60688070596</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>545.5733194167249</v>
+        <v>29.51002495954117</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>397.2782580158948</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>252.5949739201399</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M13" t="n">
-        <v>239.6903485172336</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>500.0332777704425</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>545.5733194167246</v>
       </c>
       <c r="Q14" t="n">
-        <v>81.49572290485048</v>
+        <v>35.95568125856835</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>43.11462354451112</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>397.2782580158946</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>510.2078026459603</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>71.32119802933266</v>
+        <v>29.51002495954117</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>397.2782580158946</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>197.9994541607166</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645587</v>
@@ -9403,16 +9403,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>569.3496906411406</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>12.17931003415242</v>
       </c>
       <c r="M20" t="n">
-        <v>500.0332777704425</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>81.49572290485048</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>69.44156613083146</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>53.09902264877155</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1012.408422629695</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>209.2235144660845</v>
+        <v>378.8538644107525</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>252.5949739201399</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>397.2782580158946</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>222.9907144309258</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9880,10 +9880,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>378.8538644107514</v>
       </c>
       <c r="M26" t="n">
-        <v>378.8538644107516</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>252.59497392014</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.11462354451101</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,16 +10035,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>412.3708590052918</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>378.8538644107523</v>
       </c>
       <c r="M29" t="n">
-        <v>1012.408422629696</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1008.338254547673</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>210.0142967140273</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>252.5949739201399</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>397.2782580158946</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10278,7 +10278,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>239.6903485172336</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>209.0197591122551</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>207.1922511089344</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1008.338254547673</v>
       </c>
       <c r="O32" t="n">
-        <v>818.5050638581442</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>397.2782580158947</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>397.2782580158948</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>280.43691850379</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781528</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>136.2617697297536</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>510.2078026459606</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>545.5733194167249</v>
+        <v>29.51002495954117</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>397.2782580158944</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>252.5949739201399</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -10755,7 +10755,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>134.8370665091952</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>29.51002495954117</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5089844589318</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>170.5707976450874</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>495.9631096884198</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.951315429574</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>397.2782580158944</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>53.09902264877152</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>152.236121078153</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5089844589318</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11077,10 +11077,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>495.6712156637527</v>
+        <v>29.51002495954117</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>397.2782580158944</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11235,7 +11235,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>126.5822947691818</v>
+        <v>39.1280673301012</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11299,13 +11299,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>469.1612244069328</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>521.1469223522423</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>500.0332777704425</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11375,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>43.11462354451112</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>370.9513154295737</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>53.09902264877152</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23269,10 +23269,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>26.15742071607383</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H11" t="n">
         <v>271.5679831933489</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>23.11861864117856</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>36.32971350960042</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H14" t="n">
-        <v>161.234491924696</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>272.2559751885034</v>
+        <v>264.6374832898398</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>160.9172683074837</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>147.0903531812904</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>341.4685278903817</v>
       </c>
       <c r="G35" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T35" t="n">
-        <v>93.85941588859338</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>283.3633203542769</v>
       </c>
       <c r="G38" t="n">
-        <v>97.29032954950316</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H38" t="n">
         <v>271.5679831933489</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>222.2375530577593</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>211.5956667680352</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>15.72109015682264</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>144.320286327748</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25930,10 +25930,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>372.8301586927311</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>418725.9514000383</v>
+        <v>418725.9514000384</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>621495.3609738002</v>
+        <v>621495.3609738003</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>621495.3609738003</v>
+        <v>621495.3609738002</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>621495.3609738002</v>
+        <v>621495.3609738003</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>418725.9514000384</v>
+        <v>418725.9514000383</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418725.9514000383</v>
+        <v>418725.9514000384</v>
       </c>
     </row>
     <row r="16">
@@ -26319,7 +26319,7 @@
         <v>415514.1729150666</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150667</v>
       </c>
       <c r="E2" t="n">
         <v>292848.2061538124</v>
@@ -26334,7 +26334,7 @@
         <v>292848.2061538123</v>
       </c>
       <c r="I2" t="n">
-        <v>415514.1729150667</v>
+        <v>415514.1729150669</v>
       </c>
       <c r="J2" t="n">
         <v>415514.1729150667</v>
@@ -26346,16 +26346,16 @@
         <v>415514.1729150667</v>
       </c>
       <c r="M2" t="n">
-        <v>292848.2061538124</v>
+        <v>292848.2061538123</v>
       </c>
       <c r="N2" t="n">
         <v>292848.2061538123</v>
       </c>
       <c r="O2" t="n">
+        <v>292848.2061538123</v>
+      </c>
+      <c r="P2" t="n">
         <v>292848.2061538124</v>
-      </c>
-      <c r="P2" t="n">
-        <v>292848.2061538123</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>136251.3108961173</v>
+        <v>136251.3108961174</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736726</v>
+        <v>10809.8226573672</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49313.08122041613</v>
+        <v>49313.08122041608</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,16 +26435,16 @@
         <v>50871.66601070169</v>
       </c>
       <c r="H4" t="n">
-        <v>50871.66601070168</v>
+        <v>50871.66601070169</v>
       </c>
       <c r="I4" t="n">
-        <v>99561.61401273991</v>
+        <v>99561.61401273994</v>
       </c>
       <c r="J4" t="n">
         <v>99561.61401273991</v>
       </c>
       <c r="K4" t="n">
-        <v>99561.61401273994</v>
+        <v>99561.61401273993</v>
       </c>
       <c r="L4" t="n">
         <v>99561.61401273993</v>
@@ -26453,13 +26453,13 @@
         <v>50871.66601070169</v>
       </c>
       <c r="N4" t="n">
-        <v>50871.66601070168</v>
+        <v>50871.6660107017</v>
       </c>
       <c r="O4" t="n">
-        <v>50871.66601070168</v>
+        <v>50871.6660107017</v>
       </c>
       <c r="P4" t="n">
-        <v>50871.66601070168</v>
+        <v>50871.66601070169</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>53463.84704971767</v>
       </c>
       <c r="I5" t="n">
-        <v>84616.25585716026</v>
+        <v>84616.25585716027</v>
       </c>
       <c r="J5" t="n">
         <v>84616.25585716026</v>
@@ -26527,22 +26527,22 @@
         <v>79519.34010464374</v>
       </c>
       <c r="D6" t="n">
-        <v>79519.34010464368</v>
+        <v>79519.34010464379</v>
       </c>
       <c r="E6" t="n">
-        <v>-309840.1328902777</v>
+        <v>-310235.8295572494</v>
       </c>
       <c r="F6" t="n">
-        <v>188512.6930933929</v>
+        <v>188116.9964264212</v>
       </c>
       <c r="G6" t="n">
-        <v>188512.6930933929</v>
+        <v>188116.9964264212</v>
       </c>
       <c r="H6" t="n">
-        <v>188512.6930933929</v>
+        <v>188116.9964264212</v>
       </c>
       <c r="I6" t="n">
-        <v>95084.99214904918</v>
+        <v>95084.99214904926</v>
       </c>
       <c r="J6" t="n">
         <v>220526.4803877993</v>
@@ -26554,16 +26554,16 @@
         <v>231336.3030451665</v>
       </c>
       <c r="M6" t="n">
-        <v>139199.6118729769</v>
+        <v>138803.915206005</v>
       </c>
       <c r="N6" t="n">
-        <v>188512.6930933929</v>
+        <v>188116.9964264211</v>
       </c>
       <c r="O6" t="n">
-        <v>188512.693093393</v>
+        <v>188116.9964264211</v>
       </c>
       <c r="P6" t="n">
-        <v>188512.6930933929</v>
+        <v>188116.9964264212</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>356.3411563231448</v>
       </c>
       <c r="I3" t="n">
-        <v>356.3411563231449</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="J3" t="n">
-        <v>356.3411563231449</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="K3" t="n">
-        <v>356.3411563231449</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="L3" t="n">
-        <v>356.3411563231449</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="M3" t="n">
-        <v>356.3411563231449</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="N3" t="n">
-        <v>356.3411563231449</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="O3" t="n">
-        <v>356.3411563231449</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="P3" t="n">
-        <v>356.3411563231449</v>
+        <v>356.3411563231448</v>
       </c>
     </row>
     <row r="4">
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>512.3751448592527</v>
+        <v>512.3751448592532</v>
       </c>
       <c r="J4" t="n">
-        <v>41.3150030475274</v>
+        <v>41.31500304752717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>197.8823823871853</v>
+        <v>197.8823823871851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27460,19 +27460,19 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>69.00164186746204</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E3" t="n">
         <v>51.86420747878847</v>
       </c>
       <c r="F3" t="n">
-        <v>41.23499695247265</v>
+        <v>46.15974531573791</v>
       </c>
       <c r="G3" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>127.8289581862304</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G4" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>202.1056489098019</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>254.1195287669911</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27700,19 +27700,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>46.15974531573791</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -27757,13 +27757,13 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X6" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.2209214285714</v>
+        <v>88.83066674430933</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>174.713820929217</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -27827,10 +27827,10 @@
         <v>116.333951967456</v>
       </c>
       <c r="T7" t="n">
-        <v>202.1056489098019</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4620591368455</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -27839,7 +27839,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27946,10 +27946,10 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,16 +27982,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>26.43062849183867</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T9" t="n">
-        <v>87.56185418517705</v>
+        <v>92.48660254844231</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -28061,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4620591368455</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>227.991137322044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>227.7512255173414</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y10" t="n">
         <v>183.8304709315055</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H23" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I23" t="n">
-        <v>55.22750725285647</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K23" t="n">
         <v>182.2228396528251</v>
@@ -32718,28 +32718,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M23" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N23" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q23" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651761</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S23" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T23" t="n">
-        <v>6.270888087656548</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U23" t="n">
         <v>0.1146021809280465</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7664696569969532</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H24" t="n">
-        <v>7.402483266260049</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I24" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K24" t="n">
         <v>123.7680410598984</v>
@@ -32809,16 +32809,16 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.83917937385671</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424945</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S24" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T24" t="n">
-        <v>3.089410591141227</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U24" t="n">
         <v>0.05042563532874694</v>
@@ -32867,25 +32867,25 @@
         <v>19.32420565765514</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K25" t="n">
-        <v>74.65639307884902</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L25" t="n">
-        <v>95.53447984440511</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M25" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N25" t="n">
-        <v>98.33263417028691</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O25" t="n">
-        <v>90.82610325429931</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P25" t="n">
-        <v>77.71742202824782</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q25" t="n">
         <v>53.80751460479487</v>
@@ -32897,7 +32897,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T25" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U25" t="n">
         <v>0.03504994980227658</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H26" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I26" t="n">
-        <v>55.22750725285647</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J26" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K26" t="n">
         <v>182.2228396528251</v>
@@ -32955,28 +32955,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N26" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O26" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P26" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q26" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651761</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S26" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T26" t="n">
-        <v>6.270888087656548</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U26" t="n">
         <v>0.1146021809280465</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7664696569969532</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H27" t="n">
-        <v>7.402483266260049</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I27" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K27" t="n">
         <v>123.7680410598984</v>
@@ -33046,16 +33046,16 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.83917937385671</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424945</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S27" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T27" t="n">
-        <v>3.089410591141227</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U27" t="n">
         <v>0.05042563532874694</v>
@@ -33104,25 +33104,25 @@
         <v>19.32420565765514</v>
       </c>
       <c r="J28" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K28" t="n">
-        <v>74.65639307884902</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L28" t="n">
-        <v>95.53447984440511</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M28" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N28" t="n">
-        <v>98.33263417028691</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O28" t="n">
-        <v>90.82610325429931</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P28" t="n">
-        <v>77.71742202824782</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q28" t="n">
         <v>53.80751460479487</v>
@@ -33134,7 +33134,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T28" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U28" t="n">
         <v>0.03504994980227658</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H29" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I29" t="n">
-        <v>55.22750725285647</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K29" t="n">
         <v>182.2228396528251</v>
@@ -33192,28 +33192,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M29" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N29" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P29" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q29" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R29" t="n">
-        <v>89.98599059651761</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S29" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T29" t="n">
-        <v>6.270888087656548</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U29" t="n">
         <v>0.1146021809280465</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7664696569969532</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H30" t="n">
-        <v>7.402483266260049</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I30" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K30" t="n">
         <v>123.7680410598984</v>
@@ -33283,16 +33283,16 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.83917937385671</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424945</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S30" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T30" t="n">
-        <v>3.089410591141227</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U30" t="n">
         <v>0.05042563532874694</v>
@@ -33341,25 +33341,25 @@
         <v>19.32420565765514</v>
       </c>
       <c r="J31" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K31" t="n">
-        <v>74.65639307884902</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L31" t="n">
-        <v>95.53447984440511</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M31" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N31" t="n">
-        <v>98.33263417028691</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O31" t="n">
-        <v>90.82610325429931</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P31" t="n">
-        <v>77.71742202824782</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q31" t="n">
         <v>53.80751460479487</v>
@@ -33371,7 +33371,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T31" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U31" t="n">
         <v>0.03504994980227658</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H32" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I32" t="n">
-        <v>55.22750725285647</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J32" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K32" t="n">
         <v>182.2228396528251</v>
@@ -33429,28 +33429,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M32" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N32" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O32" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P32" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q32" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R32" t="n">
-        <v>89.98599059651761</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S32" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T32" t="n">
-        <v>6.270888087656548</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U32" t="n">
         <v>0.1146021809280465</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7664696569969532</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H33" t="n">
-        <v>7.402483266260049</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I33" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K33" t="n">
         <v>123.7680410598984</v>
@@ -33520,16 +33520,16 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.83917937385671</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424945</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S33" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T33" t="n">
-        <v>3.089410591141227</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U33" t="n">
         <v>0.05042563532874694</v>
@@ -33578,25 +33578,25 @@
         <v>19.32420565765514</v>
       </c>
       <c r="J34" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K34" t="n">
-        <v>74.65639307884902</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L34" t="n">
-        <v>95.53447984440511</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M34" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N34" t="n">
-        <v>98.33263417028691</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O34" t="n">
-        <v>90.82610325429931</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P34" t="n">
-        <v>77.71742202824782</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q34" t="n">
         <v>53.80751460479487</v>
@@ -33608,7 +33608,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T34" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U34" t="n">
         <v>0.03504994980227658</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H35" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I35" t="n">
-        <v>55.22750725285647</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J35" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K35" t="n">
         <v>182.2228396528251</v>
@@ -33666,28 +33666,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M35" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N35" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O35" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P35" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q35" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651761</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S35" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T35" t="n">
-        <v>6.270888087656548</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U35" t="n">
         <v>0.1146021809280465</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7664696569969532</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H36" t="n">
-        <v>7.402483266260049</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I36" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K36" t="n">
         <v>123.7680410598984</v>
@@ -33757,16 +33757,16 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.83917937385671</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424945</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S36" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T36" t="n">
-        <v>3.089410591141227</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U36" t="n">
         <v>0.05042563532874694</v>
@@ -33815,25 +33815,25 @@
         <v>19.32420565765514</v>
       </c>
       <c r="J37" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K37" t="n">
-        <v>74.65639307884902</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L37" t="n">
-        <v>95.53447984440511</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M37" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N37" t="n">
-        <v>98.33263417028691</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O37" t="n">
-        <v>90.82610325429931</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P37" t="n">
-        <v>77.71742202824782</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q37" t="n">
         <v>53.80751460479487</v>
@@ -33845,7 +33845,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T37" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U37" t="n">
         <v>0.03504994980227658</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H38" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I38" t="n">
-        <v>55.22750725285647</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J38" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K38" t="n">
         <v>182.2228396528251</v>
@@ -33903,28 +33903,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M38" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N38" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O38" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P38" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q38" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R38" t="n">
-        <v>89.98599059651761</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S38" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T38" t="n">
-        <v>6.270888087656548</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U38" t="n">
         <v>0.1146021809280465</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7664696569969532</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H39" t="n">
-        <v>7.402483266260049</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I39" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K39" t="n">
         <v>123.7680410598984</v>
@@ -33994,16 +33994,16 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.83917937385671</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424945</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S39" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T39" t="n">
-        <v>3.089410591141227</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U39" t="n">
         <v>0.05042563532874694</v>
@@ -34052,25 +34052,25 @@
         <v>19.32420565765514</v>
       </c>
       <c r="J40" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K40" t="n">
-        <v>74.65639307884902</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L40" t="n">
-        <v>95.53447984440511</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M40" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N40" t="n">
-        <v>98.33263417028691</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O40" t="n">
-        <v>90.82610325429931</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P40" t="n">
-        <v>77.71742202824782</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q40" t="n">
         <v>53.80751460479487</v>
@@ -34082,7 +34082,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T40" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U40" t="n">
         <v>0.03504994980227658</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H41" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I41" t="n">
-        <v>55.22750725285647</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K41" t="n">
         <v>182.2228396528251</v>
@@ -34140,28 +34140,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M41" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N41" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P41" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q41" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R41" t="n">
-        <v>89.98599059651761</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S41" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T41" t="n">
-        <v>6.270888087656548</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U41" t="n">
         <v>0.1146021809280465</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7664696569969532</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H42" t="n">
-        <v>7.402483266260049</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I42" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J42" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K42" t="n">
         <v>123.7680410598984</v>
@@ -34231,16 +34231,16 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.83917937385671</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R42" t="n">
-        <v>47.58835291424945</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S42" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T42" t="n">
-        <v>3.089410591141227</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U42" t="n">
         <v>0.05042563532874694</v>
@@ -34289,25 +34289,25 @@
         <v>19.32420565765514</v>
       </c>
       <c r="J43" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K43" t="n">
-        <v>74.65639307884902</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L43" t="n">
-        <v>95.53447984440511</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M43" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N43" t="n">
-        <v>98.33263417028691</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O43" t="n">
-        <v>90.82610325429931</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P43" t="n">
-        <v>77.71742202824782</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q43" t="n">
         <v>53.80751460479487</v>
@@ -34319,7 +34319,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T43" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U43" t="n">
         <v>0.03504994980227658</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H44" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I44" t="n">
-        <v>55.22750725285647</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J44" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K44" t="n">
         <v>182.2228396528251</v>
@@ -34377,28 +34377,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M44" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N44" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O44" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P44" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q44" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R44" t="n">
-        <v>89.98599059651761</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S44" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T44" t="n">
-        <v>6.270888087656548</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U44" t="n">
         <v>0.1146021809280465</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7664696569969532</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H45" t="n">
-        <v>7.402483266260049</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I45" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J45" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K45" t="n">
         <v>123.7680410598984</v>
@@ -34468,16 +34468,16 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.83917937385671</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R45" t="n">
-        <v>47.58835291424945</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S45" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T45" t="n">
-        <v>3.089410591141227</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U45" t="n">
         <v>0.05042563532874694</v>
@@ -34526,25 +34526,25 @@
         <v>19.32420565765514</v>
       </c>
       <c r="J46" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K46" t="n">
-        <v>74.65639307884902</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L46" t="n">
-        <v>95.53447984440511</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M46" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N46" t="n">
-        <v>98.33263417028691</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O46" t="n">
-        <v>90.82610325429931</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P46" t="n">
-        <v>77.71742202824782</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q46" t="n">
         <v>53.80751460479487</v>
@@ -34556,7 +34556,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T46" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U46" t="n">
         <v>0.03504994980227658</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
         <v>41.31500304752734</v>
@@ -34777,25 +34777,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="L3" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="N3" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O4" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34947,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -35096,25 +35096,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O7" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q8" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
@@ -35330,19 +35330,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>54.81488577372507</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K11" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L11" t="n">
-        <v>701.6704265409938</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M11" t="n">
         <v>251.5392525235231</v>
@@ -35427,10 +35427,10 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P11" t="n">
-        <v>751.5725302939657</v>
+        <v>235.509235836782</v>
       </c>
       <c r="Q11" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R11" t="n">
         <v>260.8486822662721</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J12" t="n">
         <v>72.4145740411025</v>
@@ -35497,22 +35497,22 @@
         <v>166.4214051299744</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4841882120088</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N12" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119021</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P12" t="n">
         <v>146.3620873961988</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939966</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.43057660205077</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K13" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L13" t="n">
-        <v>517.9687038524467</v>
+        <v>206.079706566041</v>
       </c>
       <c r="M13" t="n">
-        <v>340.4180625906761</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N13" t="n">
         <v>545.0586979658876</v>
@@ -35655,7 +35655,7 @@
         <v>226.063545835034</v>
       </c>
       <c r="M14" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N14" t="n">
         <v>255.6094206055459</v>
@@ -35664,10 +35664,10 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772408</v>
+        <v>751.5725302939654</v>
       </c>
       <c r="Q14" t="n">
-        <v>236.1925512260204</v>
+        <v>190.6525095797383</v>
       </c>
       <c r="R14" t="n">
         <v>260.8486822662721</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>52.71635840836502</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J15" t="n">
-        <v>400.2512659261654</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K15" t="n">
-        <v>166.8826646044095</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M15" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N15" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O15" t="n">
-        <v>182.3626293119021</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P15" t="n">
         <v>146.3620873961988</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.83917937385672</v>
+        <v>495.1174373897513</v>
       </c>
       <c r="R15" t="n">
         <v>47.58835291424953</v>
@@ -35898,13 +35898,13 @@
         <v>255.6094206055459</v>
       </c>
       <c r="O17" t="n">
-        <v>751.5725302939654</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P17" t="n">
-        <v>277.3204089065734</v>
+        <v>235.509235836782</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R17" t="n">
         <v>260.8486822662721</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J18" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K18" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4214051299744</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M18" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N18" t="n">
         <v>199.3459832906242</v>
@@ -35983,10 +35983,10 @@
         <v>146.3620873961988</v>
       </c>
       <c r="Q18" t="n">
-        <v>495.1174373897513</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.43057660205077</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K19" t="n">
         <v>352.1901855749455</v>
       </c>
       <c r="L19" t="n">
-        <v>293.5339340051216</v>
+        <v>206.079706566041</v>
       </c>
       <c r="M19" t="n">
         <v>564.8528324380011</v>
@@ -36123,16 +36123,16 @@
         <v>561.2351601166642</v>
       </c>
       <c r="K20" t="n">
-        <v>182.222839652825</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="L20" t="n">
-        <v>226.063545835034</v>
+        <v>238.2428558691863</v>
       </c>
       <c r="M20" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N20" t="n">
-        <v>337.1051435103964</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O20" t="n">
         <v>241.3647276480051</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J21" t="n">
-        <v>400.2512659261655</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K21" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M21" t="n">
         <v>194.205930196114</v>
@@ -36220,10 +36220,10 @@
         <v>146.3620873961988</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.2807455046882</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>45.43057660205077</v>
       </c>
       <c r="K22" t="n">
-        <v>127.7554157276205</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L22" t="n">
         <v>517.9687038524467</v>
@@ -36299,7 +36299,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q22" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R22" t="n">
         <v>7.689198871994783</v>
@@ -36360,19 +36360,19 @@
         <v>561.2351601166642</v>
       </c>
       <c r="K23" t="n">
-        <v>182.2228396528251</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L23" t="n">
         <v>226.0635458350339</v>
       </c>
       <c r="M23" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N23" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
-        <v>450.5882421140896</v>
+        <v>620.2185920587576</v>
       </c>
       <c r="P23" t="n">
         <v>1042.675852123096</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204421</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612424</v>
       </c>
       <c r="K24" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L24" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M24" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N24" t="n">
-        <v>596.6242413065189</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O24" t="n">
         <v>182.3626293119023</v>
@@ -36460,7 +36460,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K25" t="n">
-        <v>297.6471075097749</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L25" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660408</v>
       </c>
       <c r="M25" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N25" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O25" t="n">
-        <v>514.7344358055934</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P25" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R25" t="n">
-        <v>7.689198871994787</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36600,10 +36600,10 @@
         <v>1025.000912337853</v>
       </c>
       <c r="L26" t="n">
-        <v>226.0635458350339</v>
+        <v>604.9174102457853</v>
       </c>
       <c r="M26" t="n">
-        <v>630.3931169342748</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N26" t="n">
         <v>255.6094206055459</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>52.71635840836504</v>
+        <v>52.71635840836501</v>
       </c>
       <c r="J27" t="n">
-        <v>400.2512659261655</v>
+        <v>325.0095479612425</v>
       </c>
       <c r="K27" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L27" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M27" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N27" t="n">
         <v>199.3459832906242</v>
@@ -36694,10 +36694,10 @@
         <v>146.3620873961988</v>
       </c>
       <c r="Q27" t="n">
-        <v>140.9538029183677</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,16 +36755,16 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K28" t="n">
-        <v>74.65639307884899</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L28" t="n">
-        <v>517.9687038524467</v>
+        <v>206.079706566041</v>
       </c>
       <c r="M28" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N28" t="n">
-        <v>510.7034931755786</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O28" t="n">
         <v>514.7344358055936</v>
@@ -36776,7 +36776,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R28" t="n">
-        <v>7.689198871994787</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>54.81488577372507</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K29" t="n">
-        <v>182.2228396528251</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L29" t="n">
-        <v>226.063545835034</v>
+        <v>604.9174102457862</v>
       </c>
       <c r="M29" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N29" t="n">
-        <v>1263.947675153219</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
-        <v>1231.445198931143</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P29" t="n">
-        <v>416.0135075912676</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q29" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R29" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204421</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J30" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612424</v>
       </c>
       <c r="K30" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L30" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M30" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O30" t="n">
-        <v>579.6408873277969</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P30" t="n">
         <v>146.3620873961988</v>
@@ -36934,7 +36934,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K31" t="n">
         <v>352.1901855749456</v>
@@ -36998,22 +36998,22 @@
         <v>517.9687038524467</v>
       </c>
       <c r="M31" t="n">
-        <v>564.8528324380011</v>
+        <v>340.4180625906761</v>
       </c>
       <c r="N31" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O31" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P31" t="n">
-        <v>286.7371811405028</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R31" t="n">
-        <v>7.689198871994787</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>54.81488577372507</v>
       </c>
       <c r="J32" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K32" t="n">
         <v>1025.000912337853</v>
       </c>
       <c r="L32" t="n">
-        <v>226.0635458350339</v>
+        <v>433.2557969439683</v>
       </c>
       <c r="M32" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N32" t="n">
-        <v>255.6094206055459</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="O32" t="n">
-        <v>1059.869791506149</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P32" t="n">
-        <v>1042.675852123096</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q32" t="n">
         <v>706.7158040369222</v>
@@ -37150,13 +37150,13 @@
         <v>72.4145740411025</v>
       </c>
       <c r="K33" t="n">
-        <v>521.0462990757931</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M33" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N33" t="n">
         <v>199.3459832906242</v>
@@ -37168,7 +37168,7 @@
         <v>146.3620873961988</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.83917937385672</v>
+        <v>495.1174373897516</v>
       </c>
       <c r="R33" t="n">
         <v>47.58835291424953</v>
@@ -37232,25 +37232,25 @@
         <v>352.1901855749456</v>
       </c>
       <c r="L34" t="n">
-        <v>375.9713983481952</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M34" t="n">
-        <v>564.8528324380011</v>
+        <v>252.9638351515953</v>
       </c>
       <c r="N34" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O34" t="n">
-        <v>514.7344358055934</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P34" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R34" t="n">
-        <v>7.689198871994787</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>54.81488577372507</v>
       </c>
       <c r="J35" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K35" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L35" t="n">
-        <v>362.3253155647876</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M35" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N35" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O35" t="n">
-        <v>751.5725302939657</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P35" t="n">
-        <v>751.5725302939657</v>
+        <v>235.509235836782</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110253</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K36" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L36" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M36" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O36" t="n">
-        <v>579.6408873277967</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P36" t="n">
         <v>146.3620873961988</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939966</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K37" t="n">
-        <v>352.1901855749455</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L37" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M37" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N37" t="n">
-        <v>233.169700679482</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O37" t="n">
         <v>514.7344358055936</v>
@@ -37484,10 +37484,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q37" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R37" t="n">
-        <v>7.689198871994787</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>54.81488577372507</v>
       </c>
       <c r="J38" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K38" t="n">
-        <v>182.2228396528251</v>
+        <v>211.7328646123663</v>
       </c>
       <c r="L38" t="n">
-        <v>751.5725302939658</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M38" t="n">
-        <v>422.1100501686108</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N38" t="n">
-        <v>751.5725302939657</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O38" t="n">
         <v>241.3647276480051</v>
@@ -37563,10 +37563,10 @@
         <v>205.9992108772408</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R38" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110253</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K39" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L39" t="n">
-        <v>166.4214051299745</v>
+        <v>537.3727205595484</v>
       </c>
       <c r="M39" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P39" t="n">
         <v>146.3620873961988</v>
       </c>
       <c r="Q39" t="n">
-        <v>495.1174373897511</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R39" t="n">
         <v>47.58835291424953</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.43057660205077</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K40" t="n">
-        <v>127.7554157276205</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L40" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M40" t="n">
-        <v>564.8528324380011</v>
+        <v>252.9638351515955</v>
       </c>
       <c r="N40" t="n">
         <v>545.0586979658876</v>
@@ -37724,7 +37724,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R40" t="n">
-        <v>7.689198871994787</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>54.81488577372507</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K41" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L41" t="n">
-        <v>751.5725302939658</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M41" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N41" t="n">
         <v>255.6094206055459</v>
@@ -37797,10 +37797,10 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P41" t="n">
-        <v>701.6704265409935</v>
+        <v>235.509235836782</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R41" t="n">
         <v>260.8486822662721</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J42" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K42" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L42" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M42" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O42" t="n">
         <v>182.3626293119023</v>
@@ -37879,10 +37879,10 @@
         <v>146.3620873961988</v>
       </c>
       <c r="Q42" t="n">
-        <v>495.1174373897511</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R42" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.43057660205077</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K43" t="n">
         <v>352.1901855749455</v>
       </c>
       <c r="L43" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M43" t="n">
         <v>564.8528324380011</v>
@@ -37955,13 +37955,13 @@
         <v>514.7344358055939</v>
       </c>
       <c r="P43" t="n">
-        <v>204.2997167974295</v>
+        <v>116.8454893583489</v>
       </c>
       <c r="Q43" t="n">
         <v>223.6992063869488</v>
       </c>
       <c r="R43" t="n">
-        <v>7.689198871994787</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>121.5839606692725</v>
       </c>
       <c r="K44" t="n">
-        <v>651.3840640597579</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L44" t="n">
-        <v>226.0635458350339</v>
+        <v>747.2104681872762</v>
       </c>
       <c r="M44" t="n">
-        <v>251.5392525235234</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="N44" t="n">
         <v>255.6094206055459</v>
@@ -38037,7 +38037,7 @@
         <v>205.9992108772408</v>
       </c>
       <c r="Q44" t="n">
-        <v>706.7158040369218</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R44" t="n">
         <v>260.8486822662721</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>52.71635840836503</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J45" t="n">
-        <v>72.41457404110251</v>
+        <v>400.2512659261654</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7680410598983</v>
+        <v>166.8826646044095</v>
       </c>
       <c r="L45" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M45" t="n">
         <v>194.205930196114</v>
@@ -38110,13 +38110,13 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P45" t="n">
         <v>146.3620873961988</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.7904948034304</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R45" t="n">
         <v>47.58835291424953</v>
@@ -38177,7 +38177,7 @@
         <v>45.43057660205077</v>
       </c>
       <c r="K46" t="n">
-        <v>127.7554157276205</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L46" t="n">
         <v>517.9687038524467</v>
@@ -38195,10 +38195,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q46" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R46" t="n">
-        <v>7.689198871994787</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
